--- a/CountryData/Zambia/Zambia_Workbook.xlsx
+++ b/CountryData/Zambia/Zambia_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Zambia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{1FE54266-15DF-4E4E-81A5-60FB34EB3D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0632795-5BC0-446D-97A4-CBB60E386CF5}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:40009_{1FE54266-15DF-4E4E-81A5-60FB34EB3D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B65749E8-98B7-4577-A6AB-53192C0FCDB8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     </r>
   </si>
   <si>
-    <t>Invest in Africa</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -221,24 +218,173 @@
       <rPr>
         <u/>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mine Suppliers Want the Law through SI to Force Mining Firms to Give Big Contracts to Local Players </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>December 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cabinet Approves Review Of Legislation That Allows Appointment Of PSs Into Boards </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>October 2018 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
         <color theme="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Mine Suppliers Want the Law through SI to Force Mining Firms to Give Big Contracts to Local Players </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>December 2020 – </t>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zambia to Finally Get 35% Local Content Regulation </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">June 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mining Boom has not Benefited any Zambian, Says Musukwa </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>March 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zambia to Start Forcing Miners to Move 30% of Minerals by Rail </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ross Harvey (2019) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can Zambia’s Copper Become a Flywheel for Industrialisation? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nickerson and Klimova (2018) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Case Study of Zambia: Upstream Linkages </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Östensson and Löf (2017) –</t>
     </r>
     <r>
       <rPr>
@@ -249,19 +395,203 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cabinet Approves Review Of Legislation That Allows Appointment Of PSs Into Boards </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>July 2019 – </t>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Downstream activities: The Possibilities and the Realities  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization for Economic Co-operation and Development (2017) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Local Content Policies in Minerals-exporting Countries, Case Study </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Columbia Centre on Sustainable Investment (2015) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Content: Zambia - Mining </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alan Roe et al. (2014) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Enhancing Mining’s Contribution to the Zambian Economy and Society </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>—</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019 Report, PEP Zambia Annual Review 2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>—</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fact Sheet, IFC Copperbelt SME Suppliers Development Program </t>
+    </r>
+  </si>
+  <si>
+    <t> Invest in Africa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>July 2019 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Zambia Mulls Increasing Local Firms' Participation in Mining Sector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Peter Kragelund (2020) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Using Local Content Polcies to Engender Resource-Based Development in Zambia: A Chronicle of a Death Foretold? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alexander Caramento (2020) –</t>
     </r>
     <r>
       <rPr>
@@ -272,325 +602,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Zambia Mulls Increasing Local Firms' Participation in Mining Sector</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>October 2018 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Zambia to Finally Get 35% Local Content Regulation </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">June 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mining Boom has not Benefited any Zambian, Says Musukwa </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>March 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zambia to Start Forcing Miners to Move 30% of Minerals by Rail </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Peter Kragelund (2020) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Using Local Content Polcies to Engender Resource-Based Development in Zambia: A Chronicle of a Death Foretold? </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cultivating Backward Linkages to Zambia’s Copper Mines: Debating the Design of, and Obstacles to, Local Content </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ross Harvey (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can Zambia’s Copper Become a Flywheel for Industrialisation? </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alexander Caramento (2020) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cultivating Backward Linkages to Zambia’s Copper Mines: Debating the Design of, and Obstacles to, Local Content</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nickerson and Klimova (2018) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Case Study of Zambia: Upstream Linkages </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Östensson and Löf (2017) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Downstream activities: The Possibilities and the Realities  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Organization for Economic Co-operation and Development (2017) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content Policies in Minerals-exporting Countries, Case Study </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Columbia Centre on Sustainable Investment (2015) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content: Zambia - Mining </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alan Roe et al. (2014) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enhancing Mining’s Contribution to the Zambian Economy and Society </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2019 Report, PEP Zambia Annual Review 2019</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fact Sheet, IFC Copperbelt SME Suppliers Development Program </t>
     </r>
   </si>
 </sst>
@@ -598,7 +631,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,10 +842,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -820,14 +883,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1226,7 +1282,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1235,24 +1291,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1283,20 +1330,36 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1663,7 +1726,7 @@
   <dimension ref="A2:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection sqref="A1:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,8 +1740,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1688,89 +1751,89 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="21">
         <v>146</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
@@ -1781,7 +1844,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1790,7 +1853,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2"/>
@@ -1801,7 +1864,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2"/>
@@ -1812,10 +1875,10 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1823,7 +1886,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2"/>
@@ -1834,7 +1897,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2"/>
@@ -1845,7 +1908,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1854,7 +1917,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
@@ -1865,18 +1928,18 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
@@ -1887,21 +1950,21 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="25"/>
+      <c r="A22" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="28"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1909,8 +1972,8 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>27</v>
+      <c r="A23" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1920,10 +1983,10 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="14"/>
+      <c r="A24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1931,10 +1994,10 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="25"/>
+      <c r="A25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="28"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1942,7 +2005,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1951,7 +2014,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="2"/>
@@ -1962,32 +2025,32 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="A28" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="25"/>
+      <c r="A30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="28"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1995,38 +2058,38 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="14"/>
+      <c r="A31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="26"/>
+    <row r="32" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="A33" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="25"/>
+      <c r="A34" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="28"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2034,18 +2097,18 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2054,7 +2117,7 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2"/>
@@ -2065,7 +2128,7 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
@@ -2075,31 +2138,31 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>38</v>
+    <row r="39" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="18"/>
+    <row r="41" spans="1:7" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="15"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>23</v>
+      <c r="A42" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2109,7 +2172,7 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>

--- a/CountryData/Zambia/Zambia_Workbook.xlsx
+++ b/CountryData/Zambia/Zambia_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Zambia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:40009_{1FE54266-15DF-4E4E-81A5-60FB34EB3D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B65749E8-98B7-4577-A6AB-53192C0FCDB8}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:40009_{1FE54266-15DF-4E4E-81A5-60FB34EB3D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EC6D570-1762-41E3-B262-7A419D8F5297}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17475" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zambia_Popup" sheetId="1" r:id="rId1"/>
@@ -79,21 +79,6 @@
     <t>National Trade Policy, 2018  </t>
   </si>
   <si>
-    <r>
-      <t>Mines and Minerals Development (General) Regulations, 2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Mines and Minerals Development Act, 2015 </t>
   </si>
   <si>
@@ -113,17 +98,7 @@
   </si>
   <si>
     <r>
-      <t>May 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mine Suppliers Talk Local Content Strategy</t>
+      <t>Analysis and Case Studies:</t>
     </r>
     <r>
       <rPr>
@@ -135,20 +110,10 @@
       </rPr>
       <t> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Analysis and Case Studies:</t>
+  </si>
+  <si>
+    <r>
+      <t>Relevant Initiatives: </t>
     </r>
     <r>
       <rPr>
@@ -162,21 +127,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Relevant Initiatives: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF241C15"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Prospero Zambia </t>
   </si>
   <si>
@@ -204,351 +154,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>February 2021 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mine Suppliers Want the Law through SI to Force Mining Firms to Give Big Contracts to Local Players </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>December 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cabinet Approves Review Of Legislation That Allows Appointment Of PSs Into Boards </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>October 2018 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zambia to Finally Get 35% Local Content Regulation </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">June 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mining Boom has not Benefited any Zambian, Says Musukwa </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>March 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zambia to Start Forcing Miners to Move 30% of Minerals by Rail </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ross Harvey (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can Zambia’s Copper Become a Flywheel for Industrialisation? </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nickerson and Klimova (2018) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Case Study of Zambia: Upstream Linkages </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Östensson and Löf (2017) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Downstream activities: The Possibilities and the Realities  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Organization for Economic Co-operation and Development (2017) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Local Content Policies in Minerals-exporting Countries, Case Study </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Columbia Centre on Sustainable Investment (2015) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content: Zambia - Mining </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alan Roe et al. (2014) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Enhancing Mining’s Contribution to the Zambian Economy and Society </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2019 Report, PEP Zambia Annual Review 2019</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fact Sheet, IFC Copperbelt SME Suppliers Development Program </t>
-    </r>
-  </si>
-  <si>
     <t> Invest in Africa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>July 2019 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Zambia Mulls Increasing Local Firms' Participation in Mining Sector</t>
-    </r>
   </si>
   <si>
     <r>
@@ -626,12 +232,92 @@
       <t>(Paywall)</t>
     </r>
   </si>
+  <si>
+    <t>February 2021 – Mine Suppliers Want the Law through SI to Force Mining Firms to Give Big Contracts to Local Players </t>
+  </si>
+  <si>
+    <t>December 2020 – Cabinet Approves Review Of Legislation That Allows Appointment Of PSs Into Boards </t>
+  </si>
+  <si>
+    <t>July 2019 – Zambia Mulls Increasing Local Firms' Participation in Mining Sector</t>
+  </si>
+  <si>
+    <t>October 2018 – Zambia to Finally Get 35% Local Content Regulation </t>
+  </si>
+  <si>
+    <t>June 2018 – Mining Boom has not Benefited any Zambian, Says Musukwa </t>
+  </si>
+  <si>
+    <t>March 2018 – Zambia to Start Forcing Miners to Move 30% of Minerals by Rail </t>
+  </si>
+  <si>
+    <t>Ross Harvey (2019) – Can Zambia’s Copper Become a Flywheel for Industrialisation? </t>
+  </si>
+  <si>
+    <t>Nickerson and Klimova (2018) – Case Study of Zambia: Upstream Linkages </t>
+  </si>
+  <si>
+    <t>Östensson and Löf (2017) – Downstream activities: The Possibilities and the Realities  </t>
+  </si>
+  <si>
+    <t>Organization for Economic Co-operation and Development (2017) – Local Content Policies in Minerals-exporting Countries, Case Study </t>
+  </si>
+  <si>
+    <t>Columbia Centre on Sustainable Investment (2015) – Local Content: Zambia - Mining </t>
+  </si>
+  <si>
+    <t>Alan Roe et al. (2014) – Enhancing Mining’s Contribution to the Zambian Economy and Society </t>
+  </si>
+  <si>
+    <t>—2019 Report, PEP Zambia Annual Review 2019</t>
+  </si>
+  <si>
+    <t>—Fact Sheet, IFC Copperbelt SME Suppliers Development Program </t>
+  </si>
+  <si>
+    <t>Mines and Minerals Development (General) Regulations, 2016 </t>
+  </si>
+  <si>
+    <r>
+      <t>May 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mine Suppliers Talk Local Content Strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF241C15"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,13 +493,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF241C15"/>
@@ -879,13 +558,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1282,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1306,19 +978,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1336,37 +1005,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1723,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G43"/>
+  <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,8 +1413,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1751,10 +1424,10 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1764,10 +1437,10 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1777,10 +1450,10 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1790,10 +1463,10 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>146</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1803,10 +1476,10 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1816,7 +1489,7 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1824,8 +1497,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1833,7 +1506,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
@@ -1844,7 +1517,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1878,7 +1551,7 @@
       <c r="A14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1887,7 +1560,7 @@
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1898,7 +1571,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1908,7 +1581,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1917,8 +1590,8 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
+      <c r="A18" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1928,19 +1601,19 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>18</v>
+      <c r="A20" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1950,21 +1623,21 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="28"/>
+      <c r="A22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1972,8 +1645,8 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>25</v>
+      <c r="A23" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1983,10 +1656,10 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="11"/>
+      <c r="A24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1994,10 +1667,10 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="28"/>
+      <c r="A25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="26"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2005,7 +1678,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2014,8 +1687,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>19</v>
+      <c r="A27" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2025,32 +1698,32 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="1:7" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="A28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="28"/>
+      <c r="A30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="26"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2058,38 +1731,43 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="11"/>
+      <c r="A31" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="A33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="28"/>
+      <c r="A34" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="26"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2097,11 +1775,11 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2117,8 +1795,8 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>20</v>
+      <c r="A37" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2128,8 +1806,8 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>21</v>
+      <c r="A38" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2138,14 +1816,14 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>34</v>
+    <row r="39" spans="1:7" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>22</v>
+      <c r="A40" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
@@ -2154,15 +1832,15 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="15"/>
+    <row r="41" spans="1:7" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>36</v>
+      <c r="A42" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2172,7 +1850,7 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2180,19 +1858,28 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=ZM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2201,28 +1888,38 @@
     <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/zambia" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/247/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://www.mcti.gov.zm/?wpfb_dl=77" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://www.parliament.gov.zm/sites/default/files/documents/acts/The Mines and Minerals Act, 2015.pdf" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A19" r:id="rId9" display="https://www.lusakatimes.com/2021/02/02/mine-suppliers-want-the-law-through-si-to-force-mining-firms-to-give-big-contracts-to-local-players/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="A21" r:id="rId10" display="https://zambiareports.com/2020/12/08/cabinet-approves-review-legislation-allows-appointment-pss-boards/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A22" r:id="rId11" display="https://www.iol.co.za/business-report/international/zambia-mulls-increasing-local-firms-participation-in-mining-sector-28731359" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A23" r:id="rId12" display="https://www.bee.co.za/post/2018/09/30/zambia-to-finally-get-35-local-content-regulation" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A24" r:id="rId13" display="https://www.themastonline.com/2018/06/07/mining-boom-not-benefited-any-zambian-says-musukwa/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="A25" r:id="rId14" display="https://www.mining.com/zambia-start-forcing-miners-move-30-minerals-rail/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="A28" r:id="rId15" display="https://www.sciencedirect.com/science/article/abs/pii/S2214790X19301339" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="A29" r:id="rId16" display="https://www.sciencedirect.com/science/article/abs/pii/S2214790X19301224" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="A30" r:id="rId17" display="https://saiia.org.za/research/can-zambias-copper-become-a-flywheel-for-industrialisation/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A31" r:id="rId18" display="https://www.iisd.org/sites/default/files/publications/case-study-zambia-upstream-linkages.pdf" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="A32" r:id="rId19" display="https://www.elledframework.org/de/cache/topics_resources/1232/lof_ostensson_2017_downstream_activities_the_possibilities_and_the_realities.pdf" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="A33" r:id="rId20" display="https://www.oecd.org/officialdocuments/publicdisplaydocumentpdf/?cote=TAD/TC/WP(2016)3/PART2/FINAL&amp;docLanguage=En" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="A34" r:id="rId21" display="https://www.extractiveshub.org/servefile/getFile/id/1709" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="A35" r:id="rId22" display="https://zambiaeiti.org/wp-content/uploads/2017/05/ICMM-Zambia-Report_2014.pdf" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="A38" r:id="rId23" display="https://prospero.co.zm/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A39" r:id="rId24" display="https://beamexchange.org/resources/1439/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A41" r:id="rId25" display="https://commdev.org/pdf/userfiles/CSSDP_Factsheet.pdf" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A41" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="A42" r:id="rId26" display="https://investinafrica.com/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A19:D19" r:id="rId27" display="February 2021 – Mine Suppliers Want the Law through SI to Force Mining Firms to Give Big Contracts to Local Players " xr:uid="{29DB76C8-C867-4AA1-B2D5-C0D626CEA4C6}"/>
+    <hyperlink ref="A21:C21" r:id="rId28" display="December 2020 – Cabinet Approves Review Of Legislation That Allows Appointment Of PSs Into Boards " xr:uid="{FEF1BD25-F062-470D-8937-28D284383F38}"/>
+    <hyperlink ref="A22:B22" r:id="rId29" display="July 2019 – Zambia Mulls Increasing Local Firms' Participation in Mining Sector" xr:uid="{C78C0620-0055-4976-BB23-5C8DC2B1D7B4}"/>
+    <hyperlink ref="A25:B25" r:id="rId30" display="March 2018 – Zambia to Start Forcing Miners to Move 30% of Minerals by Rail " xr:uid="{30E26DDC-F672-43E4-AF8C-9DFFA6357E13}"/>
+    <hyperlink ref="A30:B30" r:id="rId31" display="Ross Harvey (2019) – Can Zambia’s Copper Become a Flywheel for Industrialisation? " xr:uid="{D1F30E52-4F2D-4251-BCEA-4C9F075E4A12}"/>
+    <hyperlink ref="A32:B32" r:id="rId32" display="Östensson and Löf (2017) – Downstream activities: The Possibilities and the Realities  " xr:uid="{A60A6934-BA3C-42F2-8A69-931378C72712}"/>
+    <hyperlink ref="A33:E33" r:id="rId33" display="Organization for Economic Co-operation and Development (2017) – Local Content Policies in Minerals-exporting Countries, Case Study " xr:uid="{0685C681-8897-44CE-98CC-5E968EFD93DB}"/>
+    <hyperlink ref="A34:B34" r:id="rId34" display="Columbia Centre on Sustainable Investment (2015) – Local Content: Zambia - Mining " xr:uid="{770844F2-F920-430C-AC32-40C5D0806910}"/>
+    <hyperlink ref="A35:B35" r:id="rId35" display="Alan Roe et al. (2014) – Enhancing Mining’s Contribution to the Zambian Economy and Society " xr:uid="{213CF9A4-C035-441A-9C62-60BF05D6C431}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId36"/>
   <webPublishItems count="1">
     <webPublishItem id="8699" divId="Zambia_Workbook_8699" sourceType="range" sourceRef="A1:G43" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Zambia\Zambia_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
